--- a/database/EOQ.xlsx
+++ b/database/EOQ.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869055A8-D258-438C-8623-9A65DC85B3E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="2" r:id="rId1"/>
     <sheet name="PERHITUNGAN EOQ" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -84,9 +93,6 @@
     <t>ORDER 10</t>
   </si>
   <si>
-    <t>Harga per Unit</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -127,13 +133,16 @@
   </si>
   <si>
     <t>TOTAL COST MIN. (pemesanan unit yang paling optimal pada keseluruhan Order)</t>
+  </si>
+  <si>
+    <t>Harga rata2 per Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,17 +265,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -277,18 +292,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -335,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,9 +384,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,6 +436,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -576,41 +629,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -621,11 +674,11 @@
         <v>48</v>
       </c>
       <c r="E4" s="1">
-        <f>D4*C4</f>
+        <f t="shared" ref="E4:E13" si="0">D4*C4</f>
         <v>1920000</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -636,11 +689,11 @@
         <v>12</v>
       </c>
       <c r="E5" s="1">
-        <f>D5*C5</f>
+        <f t="shared" si="0"/>
         <v>468000</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -651,11 +704,11 @@
         <v>24</v>
       </c>
       <c r="E6" s="1">
-        <f>D6*C6</f>
+        <f t="shared" si="0"/>
         <v>948000</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -666,11 +719,11 @@
         <v>60</v>
       </c>
       <c r="E7" s="1">
-        <f>D7*C7</f>
+        <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -681,11 +734,11 @@
         <v>36</v>
       </c>
       <c r="E8" s="1">
-        <f>D8*C8</f>
+        <f t="shared" si="0"/>
         <v>1449000</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -696,11 +749,11 @@
         <v>12</v>
       </c>
       <c r="E9" s="1">
-        <f>D9*C9</f>
+        <f t="shared" si="0"/>
         <v>481200</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -711,11 +764,11 @@
         <v>24</v>
       </c>
       <c r="E10" s="1">
-        <f>D10*C10</f>
+        <f t="shared" si="0"/>
         <v>930000</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -726,11 +779,11 @@
         <v>36</v>
       </c>
       <c r="E11" s="1">
-        <f>D11*C11</f>
+        <f t="shared" si="0"/>
         <v>1413000</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -741,11 +794,11 @@
         <v>48</v>
       </c>
       <c r="E12" s="1">
-        <f>D12*C12</f>
+        <f t="shared" si="0"/>
         <v>1915200</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>10</v>
       </c>
@@ -756,31 +809,31 @@
         <v>60</v>
       </c>
       <c r="E13" s="1">
-        <f>D13*C13</f>
+        <f t="shared" si="0"/>
         <v>2418000</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="5">
         <f>SUM(D4:D13)</f>
         <v>360</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f>SUM(E4:E13)</f>
         <v>14192400</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6">
         <f>E14/D14</f>
         <v>39423.333333333336</v>
       </c>
@@ -795,60 +848,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:I23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="8">
+      <c r="C1" s="6">
         <f>DATA!E15</f>
         <v>39423.333333333336</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <f>30/100</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <f>DATA!D14</f>
         <v>360</v>
       </c>
@@ -856,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,9 +921,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -885,7 +936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -897,28 +948,28 @@
         <v>55.171393324926228</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="35.25" customHeight="1">
-      <c r="D12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="14" t="s">
+    <row r="12" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="D13" s="10" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3">
@@ -942,8 +993,8 @@
         <v>431769.59999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="D14" s="10" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="3">
@@ -967,8 +1018,8 @@
         <v>1514192.4</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="D15" s="10" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="3">
@@ -992,8 +1043,8 @@
         <v>778384.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="D16" s="10" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="3">
@@ -1017,8 +1068,8 @@
         <v>370962</v>
       </c>
     </row>
-    <row r="17" spans="4:9">
-      <c r="D17" s="10" t="s">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="3">
@@ -1042,8 +1093,8 @@
         <v>542577.19999999995</v>
       </c>
     </row>
-    <row r="18" spans="4:9">
-      <c r="D18" s="10" t="s">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3">
@@ -1067,8 +1118,8 @@
         <v>1514192.4</v>
       </c>
     </row>
-    <row r="19" spans="4:9">
-      <c r="D19" s="10" t="s">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="3">
@@ -1092,8 +1143,8 @@
         <v>778384.8</v>
       </c>
     </row>
-    <row r="20" spans="4:9">
-      <c r="D20" s="10" t="s">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="3">
@@ -1117,8 +1168,8 @@
         <v>542577.19999999995</v>
       </c>
     </row>
-    <row r="21" spans="4:9">
-      <c r="D21" s="10" t="s">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="3">
@@ -1142,8 +1193,8 @@
         <v>431769.59999999998</v>
       </c>
     </row>
-    <row r="22" spans="4:9">
-      <c r="D22" s="10" t="s">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="3">
@@ -1167,15 +1218,15 @@
         <v>370962</v>
       </c>
     </row>
-    <row r="23" spans="4:9">
-      <c r="D23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="8">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="6">
         <f>MIN(I13:I22)</f>
         <v>370962</v>
       </c>
@@ -1190,12 +1241,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
